--- a/data/trans_orig/P36B16-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B16-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>5742</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2808</v>
+        <v>2788</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10824</v>
+        <v>10911</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009924836160530906</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004853591858458611</v>
+        <v>0.004819443289338401</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01870974809236873</v>
+        <v>0.01885913338403981</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -762,19 +762,19 @@
         <v>7748</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4061</v>
+        <v>3738</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14322</v>
+        <v>14168</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009438524600124466</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004946414028561022</v>
+        <v>0.004552851428224518</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0174454806863845</v>
+        <v>0.01725777136338735</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -783,19 +783,19 @@
         <v>13490</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8188</v>
+        <v>8295</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20679</v>
+        <v>20671</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009639561995381813</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00585104206357826</v>
+        <v>0.005927278410725306</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01477599770051977</v>
+        <v>0.01477066440141993</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>44536</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>33431</v>
+        <v>32825</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>58661</v>
+        <v>57483</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.07698125166304974</v>
+        <v>0.07698125166304973</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05778569461980452</v>
+        <v>0.0567381969371156</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1013964863884372</v>
+        <v>0.09936102843088707</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>181</v>
@@ -833,19 +833,19 @@
         <v>94678</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>81794</v>
+        <v>81757</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>108660</v>
+        <v>108844</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1153283382386174</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09963430029581707</v>
+        <v>0.09958998940661419</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1323608348519418</v>
+        <v>0.1325851671167862</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>238</v>
@@ -854,19 +854,19 @@
         <v>139214</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>121882</v>
+        <v>122576</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>158395</v>
+        <v>157946</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09947595259017193</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08709141596462344</v>
+        <v>0.0875873084678167</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1131825627957066</v>
+        <v>0.112861501557225</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>325161</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>303118</v>
+        <v>299757</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>347934</v>
+        <v>347847</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5620474124938284</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5239454739739628</v>
+        <v>0.5181365924958672</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6014120015344601</v>
+        <v>0.6012616002719305</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>784</v>
@@ -904,19 +904,19 @@
         <v>439771</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>416113</v>
+        <v>418078</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>460577</v>
+        <v>463246</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5356929291061729</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5068750065379122</v>
+        <v>0.5092686369735647</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5610370899954225</v>
+        <v>0.5642877600430992</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1182</v>
@@ -925,19 +925,19 @@
         <v>764932</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>736523</v>
+        <v>731443</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>794484</v>
+        <v>797618</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.5465876664000576</v>
+        <v>0.5465876664000575</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5262872204880098</v>
+        <v>0.5226578437344148</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5677037966656575</v>
+        <v>0.569943298492523</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>185733</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>161056</v>
+        <v>163019</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>206405</v>
+        <v>209529</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3210436239481957</v>
+        <v>0.3210436239481956</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2783890115783292</v>
+        <v>0.2817816721646375</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3567760647715753</v>
+        <v>0.3621750674198062</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>421</v>
@@ -975,19 +975,19 @@
         <v>260428</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>236889</v>
+        <v>238182</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>280906</v>
+        <v>280081</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3172315917356522</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2885591013223745</v>
+        <v>0.2901338308754025</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3421770041958482</v>
+        <v>0.3411712731857254</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>629</v>
@@ -996,19 +996,19 @@
         <v>446161</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>419057</v>
+        <v>417915</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>477421</v>
+        <v>477883</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.318807456035498</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2994402364245226</v>
+        <v>0.2986239376051482</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3411442534268446</v>
+        <v>0.3414747386242242</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>17358</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11199</v>
+        <v>10829</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>26721</v>
+        <v>26054</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.03000287573439546</v>
+        <v>0.03000287573439547</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01935854368882805</v>
+        <v>0.01871885779594522</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0461877678155389</v>
+        <v>0.04503530270955032</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>28</v>
@@ -1046,19 +1046,19 @@
         <v>18314</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12690</v>
+        <v>12332</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>26895</v>
+        <v>25836</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02230861631943312</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01545733846595273</v>
+        <v>0.01502180765136697</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03276163078475119</v>
+        <v>0.03147161290713068</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>47</v>
@@ -1067,19 +1067,19 @@
         <v>35672</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>26344</v>
+        <v>26248</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>46788</v>
+        <v>46150</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02548936297889064</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01882463708217687</v>
+        <v>0.01875557039339924</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03343302554620887</v>
+        <v>0.03297664921334541</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>18220</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10060</v>
+        <v>9567</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32078</v>
+        <v>33393</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008168273194332009</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004509844976200971</v>
+        <v>0.004288981685642902</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01438118894853741</v>
+        <v>0.01497077885274879</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -1192,19 +1192,19 @@
         <v>21651</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14216</v>
+        <v>14149</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31784</v>
+        <v>31344</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009987421028538277</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006557602312426624</v>
+        <v>0.006526954310290953</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01466169655551656</v>
+        <v>0.01445903677162787</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>43</v>
@@ -1213,19 +1213,19 @@
         <v>39871</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28175</v>
+        <v>29287</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>58395</v>
+        <v>55352</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.009064866467387677</v>
+        <v>0.009064866467387675</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006405714310525694</v>
+        <v>0.006658513498916934</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01327659597391724</v>
+        <v>0.01258479445109273</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>167278</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>139595</v>
+        <v>141539</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>197552</v>
+        <v>199145</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.07499354433554982</v>
+        <v>0.07499354433554981</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06258265912323967</v>
+        <v>0.06345421341825883</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08856590760554427</v>
+        <v>0.08928022045199585</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>252</v>
@@ -1263,19 +1263,19 @@
         <v>182031</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>156425</v>
+        <v>158011</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>209865</v>
+        <v>210816</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.08397059974751978</v>
+        <v>0.08397059974751976</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07215861407897545</v>
+        <v>0.07289006837036469</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09681027804703461</v>
+        <v>0.09724890924481107</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>403</v>
@@ -1284,19 +1284,19 @@
         <v>349309</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>310266</v>
+        <v>315153</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>390698</v>
+        <v>391567</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07941801569674188</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07054114420488695</v>
+        <v>0.07165227215695968</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08882796148194617</v>
+        <v>0.08902572936962358</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>1307760</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1255676</v>
+        <v>1253251</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1359464</v>
+        <v>1359889</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5862904872332563</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5629405236325912</v>
+        <v>0.5618532589625368</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6094702551492461</v>
+        <v>0.6096611558567704</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1780</v>
@@ -1334,19 +1334,19 @@
         <v>1279346</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1236173</v>
+        <v>1235103</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1325181</v>
+        <v>1322544</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5901594130685485</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5702436781019277</v>
+        <v>0.5697502194842529</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6113031187136171</v>
+        <v>0.610086752577784</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2967</v>
@@ -1355,19 +1355,19 @@
         <v>2587105</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2516930</v>
+        <v>2522254</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2656577</v>
+        <v>2652530</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5881973431867131</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5722424279512546</v>
+        <v>0.5734529583882499</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6039922275422528</v>
+        <v>0.6030722054791068</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>691016</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>641329</v>
+        <v>644285</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>736181</v>
+        <v>744877</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3097940198332387</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2875185174832751</v>
+        <v>0.2888436217362205</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3300421591598798</v>
+        <v>0.3339407242763963</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>808</v>
@@ -1405,19 +1405,19 @@
         <v>641777</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>605325</v>
+        <v>603893</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>683323</v>
+        <v>682652</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2960505488720485</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2792353204747727</v>
+        <v>0.2785743149321985</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.315215475102999</v>
+        <v>0.3149057302237168</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1412</v>
@@ -1426,19 +1426,19 @@
         <v>1332794</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1271743</v>
+        <v>1267712</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1400530</v>
+        <v>1393288</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.303020351756056</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.289140044720684</v>
+        <v>0.2882235613338081</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.318420814395188</v>
+        <v>0.3167743168360111</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>46292</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>31694</v>
+        <v>31259</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>64128</v>
+        <v>64882</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02075367540362318</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01420916633843027</v>
+        <v>0.01401371160601842</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02874970478602594</v>
+        <v>0.02908771527026053</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>47</v>
@@ -1476,19 +1476,19 @@
         <v>42992</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>30724</v>
+        <v>30851</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>59500</v>
+        <v>58442</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01983201728334498</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.014172746011471</v>
+        <v>0.01423165802563105</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02744734183048098</v>
+        <v>0.02695915982304732</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>83</v>
@@ -1497,19 +1497,19 @@
         <v>89284</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>70045</v>
+        <v>69211</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>115075</v>
+        <v>111895</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02029942289310134</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01592527193423881</v>
+        <v>0.01573561883879476</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02616313449102829</v>
+        <v>0.02544017127548169</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>9132</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4375</v>
+        <v>4251</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17295</v>
+        <v>16571</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.01283381290377725</v>
+        <v>0.01283381290377724</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006148931863390397</v>
+        <v>0.005973531196497469</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02430448902611661</v>
+        <v>0.02328686372532216</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -1622,19 +1622,19 @@
         <v>13638</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8226</v>
+        <v>7958</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21985</v>
+        <v>21848</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01858013229446963</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01120709494911697</v>
+        <v>0.01084167342890833</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02995074235180339</v>
+        <v>0.02976434250717981</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -1643,19 +1643,19 @@
         <v>22771</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14617</v>
+        <v>14802</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>33187</v>
+        <v>32674</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01575157450652782</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01011135652929255</v>
+        <v>0.01023951716985282</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02295692578855967</v>
+        <v>0.02260206497189888</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>75486</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>61117</v>
+        <v>60113</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>94308</v>
+        <v>93619</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1060805742222987</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08588861456678232</v>
+        <v>0.08447774112539996</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1325313237352299</v>
+        <v>0.1315634038981826</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>144</v>
@@ -1693,19 +1693,19 @@
         <v>104897</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>88624</v>
+        <v>88813</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>122304</v>
+        <v>122599</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.14290582066423</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1207360381318341</v>
+        <v>0.1209939881936134</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1666201897322674</v>
+        <v>0.1670226336090673</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>223</v>
@@ -1714,19 +1714,19 @@
         <v>180382</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>158678</v>
+        <v>158222</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>204164</v>
+        <v>205496</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.124779028445733</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1097653488690481</v>
+        <v>0.1094494095804441</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1412300071277516</v>
+        <v>0.1421515982912732</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>424669</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>395998</v>
+        <v>395659</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>455677</v>
+        <v>449675</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5967911228732918</v>
+        <v>0.5967911228732917</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5564995824944374</v>
+        <v>0.5560238124142335</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6403671852015614</v>
+        <v>0.6319319354016071</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>615</v>
@@ -1764,19 +1764,19 @@
         <v>439815</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>415921</v>
+        <v>413686</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>463561</v>
+        <v>461782</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5991803465483085</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5666282097495666</v>
+        <v>0.5635832409518093</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6315297688204042</v>
+        <v>0.6291071328530766</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1030</v>
@@ -1785,19 +1785,19 @@
         <v>864484</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>828325</v>
+        <v>828861</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>904331</v>
+        <v>898067</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5980042794393257</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5729910885505343</v>
+        <v>0.5733618946125565</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6255686751487393</v>
+        <v>0.6212354323253184</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>186152</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>159148</v>
+        <v>162053</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>211489</v>
+        <v>214177</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.261601049429098</v>
+        <v>0.2616010494290979</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2236528873335198</v>
+        <v>0.2277349736391359</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.297206918264521</v>
+        <v>0.3009852570609461</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>216</v>
@@ -1835,19 +1835,19 @@
         <v>167937</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>148795</v>
+        <v>149156</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>191566</v>
+        <v>190869</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2287887665702404</v>
+        <v>0.2287887665702405</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2027100149235503</v>
+        <v>0.2032014657323133</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.260978804356237</v>
+        <v>0.2600295912942724</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>382</v>
@@ -1856,19 +1856,19 @@
         <v>354089</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>317943</v>
+        <v>319742</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>388835</v>
+        <v>386959</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2449402249056233</v>
+        <v>0.2449402249056234</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.219935862634776</v>
+        <v>0.2211802638189612</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.268975196878906</v>
+        <v>0.2676780511852309</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>16148</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8533</v>
+        <v>8315</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>31483</v>
+        <v>32549</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02269344057153429</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01199086355528575</v>
+        <v>0.01168579103161761</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04424338944603654</v>
+        <v>0.04574085506667459</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -1906,19 +1906,19 @@
         <v>7740</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3769</v>
+        <v>4021</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14634</v>
+        <v>13823</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01054493392275138</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.005134229657110826</v>
+        <v>0.00547842793987201</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0199360544267033</v>
+        <v>0.01883196625097101</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>22</v>
@@ -1927,19 +1927,19 @@
         <v>23889</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>14676</v>
+        <v>15172</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>39363</v>
+        <v>40957</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.01652489270279011</v>
+        <v>0.01652489270279012</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01015229940509566</v>
+        <v>0.01049549814797388</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02722908135420446</v>
+        <v>0.02833156198298062</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>33094</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21819</v>
+        <v>23118</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>47399</v>
+        <v>48811</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009399898194135149</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006197253026194552</v>
+        <v>0.006566204060328154</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01346297842875194</v>
+        <v>0.01386403302807022</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>58</v>
@@ -2052,19 +2052,19 @@
         <v>43037</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>33190</v>
+        <v>32609</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>57072</v>
+        <v>57678</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01156062894257698</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008915310825637641</v>
+        <v>0.008759351407381577</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01533054969095974</v>
+        <v>0.01549319673817128</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>90</v>
@@ -2073,19 +2073,19 @@
         <v>76132</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>60850</v>
+        <v>59258</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>94719</v>
+        <v>93203</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01051040416956679</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008400668928045895</v>
+        <v>0.008180945809448897</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01307648003631291</v>
+        <v>0.01286722325162422</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>287300</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>254812</v>
+        <v>252147</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>325887</v>
+        <v>328781</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.08160336298315043</v>
+        <v>0.08160336298315045</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07237579876645714</v>
+        <v>0.0716186754886248</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09256356242529969</v>
+        <v>0.09338570798749941</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>577</v>
@@ -2123,19 +2123,19 @@
         <v>381606</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>347734</v>
+        <v>350366</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>418066</v>
+        <v>414885</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1025059975641931</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09340760920437502</v>
+        <v>0.09411437956162745</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1122997867176597</v>
+        <v>0.1114452896497323</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>864</v>
@@ -2144,19 +2144,19 @@
         <v>668905</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>621386</v>
+        <v>620355</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>716922</v>
+        <v>721380</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.09234625661820935</v>
+        <v>0.09234625661820933</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08578595455023831</v>
+        <v>0.08564355557936376</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09897529106184326</v>
+        <v>0.0995906739410158</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>2057590</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1988563</v>
+        <v>1993861</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2122808</v>
+        <v>2123107</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5844291393064026</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5648231578255976</v>
+        <v>0.5663278819841446</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6029533659363122</v>
+        <v>0.6030383997625602</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3179</v>
@@ -2194,19 +2194,19 @@
         <v>2158932</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2102877</v>
+        <v>2109272</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2205745</v>
+        <v>2215830</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5799272163677046</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5648699161648802</v>
+        <v>0.566587514951607</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5925018916890441</v>
+        <v>0.5952110969116047</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>5179</v>
@@ -2215,19 +2215,19 @@
         <v>4216522</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4136852</v>
+        <v>4133972</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>4301357</v>
+        <v>4305504</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5821153793305417</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5711164664864141</v>
+        <v>0.5707189267640325</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.593827423629418</v>
+        <v>0.5943998669488915</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>1062901</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1000642</v>
+        <v>998151</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1128295</v>
+        <v>1119571</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.3019020091190376</v>
+        <v>0.3019020091190377</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2842182823986499</v>
+        <v>0.283510756007222</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3204760539770241</v>
+        <v>0.3179981104220115</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1445</v>
@@ -2265,19 +2265,19 @@
         <v>1070143</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1025132</v>
+        <v>1019602</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1124528</v>
+        <v>1116305</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2874591645719621</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2753686207050575</v>
+        <v>0.2738830684638958</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3020679283410125</v>
+        <v>0.2998592543761947</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2423</v>
@@ -2286,19 +2286,19 @@
         <v>2133044</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2054706</v>
+        <v>2053852</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2214271</v>
+        <v>2208365</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2944791198102593</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2836641778717672</v>
+        <v>0.2835462664235988</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3056929389991648</v>
+        <v>0.3048776286765671</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>79798</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>62264</v>
+        <v>60995</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>104741</v>
+        <v>103981</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02266559039727405</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01768530851270472</v>
+        <v>0.0173246766363516</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02975012992021523</v>
+        <v>0.02953430485875267</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>85</v>
@@ -2336,19 +2336,19 @@
         <v>69046</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>53011</v>
+        <v>53322</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>86163</v>
+        <v>87712</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01854699255356336</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01423977000916859</v>
+        <v>0.01432325237405299</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02314493351059728</v>
+        <v>0.02356089336445756</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>152</v>
@@ -2357,19 +2357,19 @@
         <v>148844</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>122080</v>
+        <v>126388</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>176205</v>
+        <v>180663</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02054884007142303</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01685389323276723</v>
+        <v>0.01744862888790035</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02432616655063458</v>
+        <v>0.02494160860880408</v>
       </c>
     </row>
     <row r="27">
